--- a/report_baseline_2000.xlsx
+++ b/report_baseline_2000.xlsx
@@ -3565,7 +3565,7 @@
         <v>11</v>
       </c>
       <c r="R35" t="n">
-        <v>438.078622</v>
+        <v>438.0786219999998</v>
       </c>
       <c r="S35" t="n">
         <v>1</v>
@@ -3606,7 +3606,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>110.9599999999999</v>
+        <v>110.96</v>
       </c>
       <c r="C36" t="n">
         <v>1</v>
@@ -3618,7 +3618,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>110.9599999999999</v>
+        <v>110.96</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -3654,7 +3654,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>110.9599999999999</v>
+        <v>110.96</v>
       </c>
       <c r="S36" t="n">
         <v>1</v>
@@ -3719,7 +3719,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>407.3208960000011</v>
+        <v>407.3208960005902</v>
       </c>
       <c r="K37" t="n">
         <v>1</v>
@@ -3962,7 +3962,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>197.8405020000005</v>
+        <v>197.8405019999702</v>
       </c>
       <c r="C40" t="n">
         <v>1</v>
@@ -3998,7 +3998,7 @@
         <v>5</v>
       </c>
       <c r="N40" t="n">
-        <v>268.5294299999994</v>
+        <v>268.5294300000007</v>
       </c>
       <c r="O40" t="n">
         <v>1</v>
@@ -4075,7 +4075,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>54.18000000000001</v>
+        <v>54.18000000559415</v>
       </c>
       <c r="K41" t="n">
         <v>1</v>
@@ -4508,7 +4508,7 @@
         <v>11</v>
       </c>
       <c r="F46" t="n">
-        <v>79.96320590540583</v>
+        <v>79.96320590540493</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -4556,7 +4556,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>87.36028308108155</v>
+        <v>87.36028308108128</v>
       </c>
       <c r="W46" t="n">
         <v>1</v>
@@ -4977,7 +4977,7 @@
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>30.69999999999997</v>
+        <v>30.7</v>
       </c>
       <c r="O51" t="n">
         <v>1</v>
@@ -5013,7 +5013,7 @@
         <v>0</v>
       </c>
       <c r="Z51" t="n">
-        <v>30.93999999999991</v>
+        <v>30.9400000000038</v>
       </c>
       <c r="AA51" t="n">
         <v>1</v>
